--- a/biology/Botanique/Coilochilideae/Coilochilideae.xlsx
+++ b/biology/Botanique/Coilochilideae/Coilochilideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Coilochilideae ou sous-tribu des Coilochilidinae (renommée en  2003) était une tribu de la sous-famille des Epidendroideae, famille des Orchidaceae selon la classification APG II. Cependant, le genre Coilochilus est classé dorénavant dans la sous-famille des Orchidoideae, la tribu des Diurideae et la sous-tribu des Cryptostylidinae d'après la classification APG III actuellement en vigueur[1].
-Cette tribu regroupait les espèces d'Orchidées du genre Coilochilus ayant pour espèce type (une seule espèce pour l'instant[2]) Coilochilus neocaledonicum qui est une espèce endémique de Nouvelle-Calédonie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Coilochilideae ou sous-tribu des Coilochilidinae (renommée en  2003) était une tribu de la sous-famille des Epidendroideae, famille des Orchidaceae selon la classification APG II. Cependant, le genre Coilochilus est classé dorénavant dans la sous-famille des Orchidoideae, la tribu des Diurideae et la sous-tribu des Cryptostylidinae d'après la classification APG III actuellement en vigueur.
+Cette tribu regroupait les espèces d'Orchidées du genre Coilochilus ayant pour espèce type (une seule espèce pour l'instant) Coilochilus neocaledonicum qui est une espèce endémique de Nouvelle-Calédonie.
 Le nom de cette tribu ayant été défini en 2002 puis considéré comme une sous-tribu à partir de 2003, Coilochilideae correspond donc au basionyme de la sous-tribu des Coilochilidinae et n'est plus considéré comme valide en taxinomie végétale.
 </t>
         </is>
